--- a/DynamicsAXSecurityTestingFramework/DynamicsAXTestCase1/DynamicsAXTestCase1.rvl.xlsx
+++ b/DynamicsAXSecurityTestingFramework/DynamicsAXTestCase1/DynamicsAXTestCase1.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="127">
   <si>
     <t>Flow</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>variable</t>
+  </si>
+  <si>
+    <t>Grant_access_to_all_organization</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -3054,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -3123,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
